--- a/jogadores.xlsx
+++ b/jogadores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\pythonprojecty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.pacheco\Desktop\projeto\ligarecord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3736EE92-7D1D-4191-9C74-72161664D5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442FAE3-05CB-4BEB-88A9-E248D56FB87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D33D7384-0CF6-463C-86FD-FD40C93BF4B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D33D7384-0CF6-463C-86FD-FD40C93BF4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="converted_file(1)" sheetId="1" r:id="rId1"/>
@@ -2241,48 +2241,48 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2298,7 +2298,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2614,11 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302E5662-4BAB-4646-A72D-53908ECEAB69}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="N536" sqref="N536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2752,8 +2751,14 @@
       <c r="K3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2787,8 +2792,14 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2822,8 +2833,14 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2857,8 +2874,14 @@
       <c r="K6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2892,8 +2915,14 @@
       <c r="K7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2927,8 +2956,14 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2962,8 +2997,14 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2996,6 +3037,12 @@
       </c>
       <c r="K10" s="1">
         <v>1</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3080,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3114,8 +3161,14 @@
       <c r="K13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -3149,8 +3202,14 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -3184,8 +3243,14 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -3219,8 +3284,14 @@
       <c r="K16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -3254,8 +3325,14 @@
       <c r="K17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3289,8 +3366,14 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -3324,8 +3407,14 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -3359,8 +3448,14 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3394,8 +3489,14 @@
       <c r="K21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3429,8 +3530,14 @@
       <c r="K22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3464,8 +3571,14 @@
       <c r="K23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3499,8 +3612,14 @@
       <c r="K24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3534,8 +3653,14 @@
       <c r="K25" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -3568,6 +3693,12 @@
       </c>
       <c r="K26" s="1">
         <v>2</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3652,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -3686,8 +3817,14 @@
       <c r="K29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -3721,8 +3858,14 @@
       <c r="K30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -3756,8 +3899,14 @@
       <c r="K31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -3791,8 +3940,14 @@
       <c r="K32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -3826,8 +3981,14 @@
       <c r="K33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -3861,8 +4022,14 @@
       <c r="K34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -3896,8 +4063,14 @@
       <c r="K35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -3931,8 +4104,14 @@
       <c r="K36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3966,8 +4145,14 @@
       <c r="K37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -4001,8 +4186,14 @@
       <c r="K38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -4036,8 +4227,14 @@
       <c r="K39" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -4071,8 +4268,14 @@
       <c r="K40" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4106,8 +4309,14 @@
       <c r="K41" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -4141,8 +4350,14 @@
       <c r="K42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -4176,8 +4391,14 @@
       <c r="K43" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
@@ -4211,8 +4432,14 @@
       <c r="K44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -4246,8 +4473,14 @@
       <c r="K45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -4281,8 +4514,14 @@
       <c r="K46" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
@@ -4316,8 +4555,14 @@
       <c r="K47" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -4351,8 +4596,14 @@
       <c r="K48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -4386,8 +4637,14 @@
       <c r="K49" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -4421,8 +4678,14 @@
       <c r="K50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -4456,8 +4719,14 @@
       <c r="K51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -4491,8 +4760,14 @@
       <c r="K52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -4526,8 +4801,14 @@
       <c r="K53" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -4560,6 +4841,12 @@
       </c>
       <c r="K54" s="1">
         <v>3</v>
+      </c>
+      <c r="L54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4603,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -4637,8 +4924,14 @@
       <c r="K56" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -4672,8 +4965,14 @@
       <c r="K57" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -4707,8 +5006,14 @@
       <c r="K58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -4742,8 +5047,14 @@
       <c r="K59" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -4777,8 +5088,14 @@
       <c r="K60" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4812,8 +5129,14 @@
       <c r="K61" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -4847,8 +5170,14 @@
       <c r="K62" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
@@ -4882,8 +5211,14 @@
       <c r="K63" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -4916,6 +5251,12 @@
       </c>
       <c r="K64" s="1">
         <v>3</v>
+      </c>
+      <c r="L64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5041,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -5075,8 +5416,14 @@
       <c r="K68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -5109,6 +5456,12 @@
       </c>
       <c r="K69" s="1">
         <v>5</v>
+      </c>
+      <c r="L69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5153,7 +5506,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -5187,8 +5540,14 @@
       <c r="K71" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>85</v>
       </c>
@@ -5222,8 +5581,14 @@
       <c r="K72" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -5257,8 +5622,14 @@
       <c r="K73" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>88</v>
       </c>
@@ -5292,8 +5663,14 @@
       <c r="K74" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>89</v>
       </c>
@@ -5327,8 +5704,14 @@
       <c r="K75" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
@@ -5362,8 +5745,14 @@
       <c r="K76" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>91</v>
       </c>
@@ -5397,8 +5786,14 @@
       <c r="K77" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>92</v>
       </c>
@@ -5432,8 +5827,14 @@
       <c r="K78" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
@@ -5467,8 +5868,14 @@
       <c r="K79" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -5502,8 +5909,14 @@
       <c r="K80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5537,8 +5950,14 @@
       <c r="K81" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>96</v>
       </c>
@@ -5572,8 +5991,14 @@
       <c r="K82" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>97</v>
       </c>
@@ -5607,8 +6032,14 @@
       <c r="K83" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>98</v>
       </c>
@@ -5642,8 +6073,14 @@
       <c r="K84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -5677,8 +6114,14 @@
       <c r="K85" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>100</v>
       </c>
@@ -5712,8 +6155,14 @@
       <c r="K86" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -5747,8 +6196,14 @@
       <c r="K87" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>102</v>
       </c>
@@ -5782,8 +6237,14 @@
       <c r="K88" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
@@ -5817,8 +6278,14 @@
       <c r="K89" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>104</v>
       </c>
@@ -5851,6 +6318,12 @@
       </c>
       <c r="K90" s="1">
         <v>3</v>
+      </c>
+      <c r="L90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5894,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>106</v>
       </c>
@@ -5928,8 +6401,14 @@
       <c r="K92" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -5963,8 +6442,14 @@
       <c r="K93" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>108</v>
       </c>
@@ -5998,8 +6483,14 @@
       <c r="K94" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
@@ -6033,8 +6524,14 @@
       <c r="K95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>110</v>
       </c>
@@ -6068,8 +6565,14 @@
       <c r="K96" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>111</v>
       </c>
@@ -6103,8 +6606,14 @@
       <c r="K97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>112</v>
       </c>
@@ -6138,8 +6647,14 @@
       <c r="K98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>113</v>
       </c>
@@ -6173,8 +6688,14 @@
       <c r="K99" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
@@ -6208,8 +6729,14 @@
       <c r="K100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
@@ -6243,8 +6770,14 @@
       <c r="K101" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
@@ -6278,8 +6811,14 @@
       <c r="K102" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
@@ -6313,8 +6852,14 @@
       <c r="K103" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
@@ -6348,8 +6893,14 @@
       <c r="K104" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>119</v>
       </c>
@@ -6383,8 +6934,14 @@
       <c r="K105" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>120</v>
       </c>
@@ -6418,8 +6975,14 @@
       <c r="K106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>121</v>
       </c>
@@ -6453,8 +7016,14 @@
       <c r="K107" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>122</v>
       </c>
@@ -6488,8 +7057,14 @@
       <c r="K108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -6523,8 +7098,14 @@
       <c r="K109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>124</v>
       </c>
@@ -6558,8 +7139,14 @@
       <c r="K110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>126</v>
       </c>
@@ -6593,8 +7180,14 @@
       <c r="K111" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>127</v>
       </c>
@@ -6628,8 +7221,14 @@
       <c r="K112" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
@@ -6663,8 +7262,14 @@
       <c r="K113" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
@@ -6698,8 +7303,14 @@
       <c r="K114" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>130</v>
       </c>
@@ -6732,6 +7343,12 @@
       </c>
       <c r="K115" s="1">
         <v>1</v>
+      </c>
+      <c r="L115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -6775,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -6809,8 +7426,14 @@
       <c r="K117" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -6844,8 +7467,14 @@
       <c r="K118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -6879,8 +7508,14 @@
       <c r="K119" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>135</v>
       </c>
@@ -6914,8 +7549,14 @@
       <c r="K120" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
@@ -6949,8 +7590,14 @@
       <c r="K121" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
@@ -6984,8 +7631,14 @@
       <c r="K122" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L122" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
@@ -7019,8 +7672,14 @@
       <c r="K123" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>139</v>
       </c>
@@ -7054,8 +7713,14 @@
       <c r="K124" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>140</v>
       </c>
@@ -7089,8 +7754,14 @@
       <c r="K125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
@@ -7124,8 +7795,14 @@
       <c r="K126" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>142</v>
       </c>
@@ -7159,8 +7836,14 @@
       <c r="K127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
@@ -7194,8 +7877,14 @@
       <c r="K128" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
@@ -7229,8 +7918,14 @@
       <c r="K129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
@@ -7264,8 +7959,14 @@
       <c r="K130" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
@@ -7299,8 +8000,14 @@
       <c r="K131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>147</v>
       </c>
@@ -7334,8 +8041,14 @@
       <c r="K132" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>148</v>
       </c>
@@ -7369,8 +8082,14 @@
       <c r="K133" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>149</v>
       </c>
@@ -7404,8 +8123,14 @@
       <c r="K134" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
@@ -7439,8 +8164,14 @@
       <c r="K135" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
@@ -7474,8 +8205,14 @@
       <c r="K136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>152</v>
       </c>
@@ -7509,8 +8246,14 @@
       <c r="K137" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>153</v>
       </c>
@@ -7544,8 +8287,14 @@
       <c r="K138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>154</v>
       </c>
@@ -7579,8 +8328,14 @@
       <c r="K139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
@@ -7614,8 +8369,14 @@
       <c r="K140" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
@@ -7649,8 +8410,14 @@
       <c r="K141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>157</v>
       </c>
@@ -7684,8 +8451,14 @@
       <c r="K142" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
@@ -7719,8 +8492,14 @@
       <c r="K143" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
@@ -7754,8 +8533,14 @@
       <c r="K144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>160</v>
       </c>
@@ -7789,8 +8574,14 @@
       <c r="K145" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -7824,8 +8615,14 @@
       <c r="K146" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>162</v>
       </c>
@@ -7859,8 +8656,14 @@
       <c r="K147" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>163</v>
       </c>
@@ -7894,8 +8697,14 @@
       <c r="K148" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>164</v>
       </c>
@@ -7929,8 +8738,14 @@
       <c r="K149" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>165</v>
       </c>
@@ -7964,8 +8779,14 @@
       <c r="K150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>166</v>
       </c>
@@ -7999,8 +8820,14 @@
       <c r="K151" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>167</v>
       </c>
@@ -8034,8 +8861,14 @@
       <c r="K152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>168</v>
       </c>
@@ -8069,8 +8902,14 @@
       <c r="K153" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>169</v>
       </c>
@@ -8103,6 +8942,12 @@
       </c>
       <c r="K154" s="1">
         <v>3</v>
+      </c>
+      <c r="L154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -8146,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>171</v>
       </c>
@@ -8180,8 +9025,14 @@
       <c r="K156" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>172</v>
       </c>
@@ -8215,8 +9066,14 @@
       <c r="K157" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>173</v>
       </c>
@@ -8250,8 +9107,14 @@
       <c r="K158" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>174</v>
       </c>
@@ -8285,8 +9148,14 @@
       <c r="K159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>175</v>
       </c>
@@ -8319,6 +9188,12 @@
       </c>
       <c r="K160" s="1">
         <v>2</v>
+      </c>
+      <c r="L160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -8362,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
@@ -8396,8 +9271,14 @@
       <c r="K162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>178</v>
       </c>
@@ -8431,8 +9312,14 @@
       <c r="K163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>179</v>
       </c>
@@ -8466,8 +9353,14 @@
       <c r="K164" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L164" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>180</v>
       </c>
@@ -8501,8 +9394,14 @@
       <c r="K165" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L165" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>181</v>
       </c>
@@ -8536,8 +9435,14 @@
       <c r="K166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>182</v>
       </c>
@@ -8571,8 +9476,14 @@
       <c r="K167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>183</v>
       </c>
@@ -8606,8 +9517,14 @@
       <c r="K168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>184</v>
       </c>
@@ -8641,8 +9558,14 @@
       <c r="K169" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>185</v>
       </c>
@@ -8676,8 +9599,14 @@
       <c r="K170" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>186</v>
       </c>
@@ -8711,8 +9640,14 @@
       <c r="K171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>187</v>
       </c>
@@ -8746,8 +9681,14 @@
       <c r="K172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L172" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
@@ -8781,8 +9722,14 @@
       <c r="K173" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>189</v>
       </c>
@@ -8816,8 +9763,14 @@
       <c r="K174" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
@@ -8851,8 +9804,14 @@
       <c r="K175" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>191</v>
       </c>
@@ -8886,8 +9845,14 @@
       <c r="K176" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>192</v>
       </c>
@@ -8921,8 +9886,14 @@
       <c r="K177" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>193</v>
       </c>
@@ -8956,8 +9927,14 @@
       <c r="K178" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>194</v>
       </c>
@@ -8991,8 +9968,14 @@
       <c r="K179" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>195</v>
       </c>
@@ -9026,8 +10009,14 @@
       <c r="K180" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>196</v>
       </c>
@@ -9061,8 +10050,14 @@
       <c r="K181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>197</v>
       </c>
@@ -9096,8 +10091,14 @@
       <c r="K182" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M182" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>198</v>
       </c>
@@ -9131,8 +10132,14 @@
       <c r="K183" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>199</v>
       </c>
@@ -9166,8 +10173,14 @@
       <c r="K184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>200</v>
       </c>
@@ -9201,8 +10214,14 @@
       <c r="K185" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L185" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>201</v>
       </c>
@@ -9236,8 +10255,14 @@
       <c r="K186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L186" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>202</v>
       </c>
@@ -9271,8 +10296,14 @@
       <c r="K187" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M187" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>203</v>
       </c>
@@ -9306,8 +10337,14 @@
       <c r="K188" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>204</v>
       </c>
@@ -9341,8 +10378,14 @@
       <c r="K189" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M189" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>205</v>
       </c>
@@ -9376,8 +10419,14 @@
       <c r="K190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L190" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>206</v>
       </c>
@@ -9411,8 +10460,14 @@
       <c r="K191" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>207</v>
       </c>
@@ -9446,8 +10501,14 @@
       <c r="K192" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M192" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>208</v>
       </c>
@@ -9481,8 +10542,14 @@
       <c r="K193" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L193" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>209</v>
       </c>
@@ -9516,8 +10583,14 @@
       <c r="K194" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L194" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>210</v>
       </c>
@@ -9551,8 +10624,14 @@
       <c r="K195" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M195" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>211</v>
       </c>
@@ -9586,8 +10665,14 @@
       <c r="K196" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>212</v>
       </c>
@@ -9621,8 +10706,14 @@
       <c r="K197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M197" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>213</v>
       </c>
@@ -9656,8 +10747,14 @@
       <c r="K198" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L198" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M198" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>214</v>
       </c>
@@ -9691,8 +10788,14 @@
       <c r="K199" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>215</v>
       </c>
@@ -9726,8 +10829,14 @@
       <c r="K200" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>216</v>
       </c>
@@ -9761,8 +10870,14 @@
       <c r="K201" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>217</v>
       </c>
@@ -9796,8 +10911,14 @@
       <c r="K202" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>218</v>
       </c>
@@ -9831,8 +10952,14 @@
       <c r="K203" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>219</v>
       </c>
@@ -9866,8 +10993,14 @@
       <c r="K204" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M204" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>220</v>
       </c>
@@ -9901,8 +11034,14 @@
       <c r="K205" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L205" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>221</v>
       </c>
@@ -9936,8 +11075,14 @@
       <c r="K206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L206" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>222</v>
       </c>
@@ -9971,8 +11116,14 @@
       <c r="K207" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L207" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>223</v>
       </c>
@@ -10006,8 +11157,14 @@
       <c r="K208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L208" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>224</v>
       </c>
@@ -10041,8 +11198,14 @@
       <c r="K209" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L209" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M209" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>128</v>
       </c>
@@ -10076,8 +11239,14 @@
       <c r="K210" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L210" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>225</v>
       </c>
@@ -10111,8 +11280,14 @@
       <c r="K211" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L211" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>226</v>
       </c>
@@ -10146,8 +11321,14 @@
       <c r="K212" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L212" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M212" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>227</v>
       </c>
@@ -10181,8 +11362,14 @@
       <c r="K213" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L213" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>228</v>
       </c>
@@ -10216,8 +11403,14 @@
       <c r="K214" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L214" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M214" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>229</v>
       </c>
@@ -10251,8 +11444,14 @@
       <c r="K215" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L215" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>230</v>
       </c>
@@ -10286,8 +11485,14 @@
       <c r="K216" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L216" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M216" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>231</v>
       </c>
@@ -10320,6 +11525,12 @@
       </c>
       <c r="K217" s="1">
         <v>1</v>
+      </c>
+      <c r="L217" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M217" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -10363,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>233</v>
       </c>
@@ -10397,8 +11608,14 @@
       <c r="K219" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L219" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>234</v>
       </c>
@@ -10432,8 +11649,14 @@
       <c r="K220" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L220" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M220" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>235</v>
       </c>
@@ -10467,8 +11690,14 @@
       <c r="K221" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L221" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M221" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>236</v>
       </c>
@@ -10502,8 +11731,14 @@
       <c r="K222" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L222" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M222" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>237</v>
       </c>
@@ -10537,8 +11772,14 @@
       <c r="K223" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L223" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M223" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>238</v>
       </c>
@@ -10572,8 +11813,14 @@
       <c r="K224" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L224" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M224" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>239</v>
       </c>
@@ -10607,8 +11854,14 @@
       <c r="K225" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L225" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M225" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>240</v>
       </c>
@@ -10642,8 +11895,14 @@
       <c r="K226" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L226" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M226" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>241</v>
       </c>
@@ -10677,8 +11936,14 @@
       <c r="K227" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L227" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M227" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>242</v>
       </c>
@@ -10712,8 +11977,14 @@
       <c r="K228" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L228" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M228" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>243</v>
       </c>
@@ -10747,8 +12018,14 @@
       <c r="K229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L229" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M229" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>244</v>
       </c>
@@ -10782,8 +12059,14 @@
       <c r="K230" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L230" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M230" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>245</v>
       </c>
@@ -10817,8 +12100,14 @@
       <c r="K231" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L231" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M231" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>246</v>
       </c>
@@ -10852,8 +12141,14 @@
       <c r="K232" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L232" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M232" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>247</v>
       </c>
@@ -10887,8 +12182,14 @@
       <c r="K233" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L233" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M233" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>248</v>
       </c>
@@ -10922,8 +12223,14 @@
       <c r="K234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L234" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M234" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>249</v>
       </c>
@@ -10957,8 +12264,14 @@
       <c r="K235" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L235" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M235" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>250</v>
       </c>
@@ -10992,8 +12305,14 @@
       <c r="K236" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L236" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M236" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>251</v>
       </c>
@@ -11026,6 +12345,12 @@
       </c>
       <c r="K237" s="1">
         <v>1</v>
+      </c>
+      <c r="L237" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M237" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -11069,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>253</v>
       </c>
@@ -11103,8 +12428,14 @@
       <c r="K239" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L239" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M239" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>254</v>
       </c>
@@ -11138,8 +12469,14 @@
       <c r="K240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L240" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M240" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>255</v>
       </c>
@@ -11173,8 +12510,14 @@
       <c r="K241" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L241" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M241" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>256</v>
       </c>
@@ -11208,8 +12551,14 @@
       <c r="K242" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L242" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M242" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>257</v>
       </c>
@@ -11243,8 +12592,14 @@
       <c r="K243" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L243" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M243" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>258</v>
       </c>
@@ -11278,8 +12633,14 @@
       <c r="K244" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L244" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M244" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>259</v>
       </c>
@@ -11313,8 +12674,14 @@
       <c r="K245" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L245" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M245" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>260</v>
       </c>
@@ -11348,8 +12715,14 @@
       <c r="K246" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L246" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M246" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>261</v>
       </c>
@@ -11383,8 +12756,14 @@
       <c r="K247" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L247" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M247" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>262</v>
       </c>
@@ -11418,8 +12797,14 @@
       <c r="K248" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L248" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M248" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>263</v>
       </c>
@@ -11453,8 +12838,14 @@
       <c r="K249" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L249" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M249" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>264</v>
       </c>
@@ -11488,8 +12879,14 @@
       <c r="K250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L250" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M250" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>265</v>
       </c>
@@ -11523,8 +12920,14 @@
       <c r="K251" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L251" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M251" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>266</v>
       </c>
@@ -11558,8 +12961,14 @@
       <c r="K252" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L252" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M252" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>267</v>
       </c>
@@ -11593,8 +13002,14 @@
       <c r="K253" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L253" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M253" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>268</v>
       </c>
@@ -11628,8 +13043,14 @@
       <c r="K254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L254" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M254" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>269</v>
       </c>
@@ -11663,8 +13084,14 @@
       <c r="K255" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L255" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M255" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>270</v>
       </c>
@@ -11698,8 +13125,14 @@
       <c r="K256" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L256" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M256" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>271</v>
       </c>
@@ -11733,8 +13166,14 @@
       <c r="K257" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L257" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M257" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>272</v>
       </c>
@@ -11768,8 +13207,14 @@
       <c r="K258" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L258" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M258" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>273</v>
       </c>
@@ -11803,8 +13248,14 @@
       <c r="K259" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L259" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M259" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>274</v>
       </c>
@@ -11838,8 +13289,14 @@
       <c r="K260" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L260" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M260" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>275</v>
       </c>
@@ -11873,8 +13330,14 @@
       <c r="K261" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L261" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M261" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>276</v>
       </c>
@@ -11907,6 +13370,12 @@
       </c>
       <c r="K262" s="1">
         <v>1</v>
+      </c>
+      <c r="L262" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M262" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11950,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>278</v>
       </c>
@@ -11984,8 +13453,14 @@
       <c r="K264" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L264" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M264" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>279</v>
       </c>
@@ -12019,8 +13494,14 @@
       <c r="K265" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L265" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M265" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>280</v>
       </c>
@@ -12054,8 +13535,14 @@
       <c r="K266" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L266" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M266" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>281</v>
       </c>
@@ -12089,8 +13576,14 @@
       <c r="K267" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L267" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M267" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>261</v>
       </c>
@@ -12124,8 +13617,14 @@
       <c r="K268" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L268" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M268" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>282</v>
       </c>
@@ -12159,8 +13658,14 @@
       <c r="K269" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L269" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M269" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>283</v>
       </c>
@@ -12194,8 +13699,14 @@
       <c r="K270" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L270" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M270" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>284</v>
       </c>
@@ -12229,8 +13740,14 @@
       <c r="K271" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L271" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M271" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>285</v>
       </c>
@@ -12264,8 +13781,14 @@
       <c r="K272" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L272" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M272" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>286</v>
       </c>
@@ -12299,8 +13822,14 @@
       <c r="K273" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L273" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M273" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>287</v>
       </c>
@@ -12334,8 +13863,14 @@
       <c r="K274" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L274" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M274" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>288</v>
       </c>
@@ -12369,8 +13904,14 @@
       <c r="K275" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L275" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M275" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>289</v>
       </c>
@@ -12404,8 +13945,14 @@
       <c r="K276" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L276" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M276" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>290</v>
       </c>
@@ -12439,8 +13986,14 @@
       <c r="K277" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L277" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M277" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>291</v>
       </c>
@@ -12474,8 +14027,14 @@
       <c r="K278" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L278" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M278" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>292</v>
       </c>
@@ -12509,8 +14068,14 @@
       <c r="K279" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L279" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M279" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>293</v>
       </c>
@@ -12544,8 +14109,14 @@
       <c r="K280" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L280" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M280" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>294</v>
       </c>
@@ -12579,8 +14150,14 @@
       <c r="K281" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L281" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M281" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>295</v>
       </c>
@@ -12614,8 +14191,14 @@
       <c r="K282" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L282" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M282" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>296</v>
       </c>
@@ -12649,8 +14232,14 @@
       <c r="K283" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L283" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M283" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>297</v>
       </c>
@@ -12684,8 +14273,14 @@
       <c r="K284" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L284" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M284" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>298</v>
       </c>
@@ -12719,8 +14314,14 @@
       <c r="K285" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L285" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M285" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>221</v>
       </c>
@@ -12754,8 +14355,14 @@
       <c r="K286" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L286" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M286" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>299</v>
       </c>
@@ -12789,8 +14396,14 @@
       <c r="K287" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L287" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M287" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>300</v>
       </c>
@@ -12824,8 +14437,14 @@
       <c r="K288" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L288" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M288" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>301</v>
       </c>
@@ -12859,8 +14478,14 @@
       <c r="K289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L289" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M289" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>302</v>
       </c>
@@ -12894,8 +14519,14 @@
       <c r="K290" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L290" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M290" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>303</v>
       </c>
@@ -12929,8 +14560,14 @@
       <c r="K291" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L291" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M291" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>304</v>
       </c>
@@ -12964,8 +14601,14 @@
       <c r="K292" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L292" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M292" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>305</v>
       </c>
@@ -12999,8 +14642,14 @@
       <c r="K293" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L293" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M293" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>306</v>
       </c>
@@ -13034,8 +14683,14 @@
       <c r="K294" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L294" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M294" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>307</v>
       </c>
@@ -13069,8 +14724,14 @@
       <c r="K295" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L295" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M295" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>308</v>
       </c>
@@ -13104,8 +14765,14 @@
       <c r="K296" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L296" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M296" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>309</v>
       </c>
@@ -13139,8 +14806,14 @@
       <c r="K297" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L297" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M297" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>310</v>
       </c>
@@ -13174,8 +14847,14 @@
       <c r="K298" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L298" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M298" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>311</v>
       </c>
@@ -13209,8 +14888,14 @@
       <c r="K299" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L299" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M299" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>312</v>
       </c>
@@ -13244,8 +14929,14 @@
       <c r="K300" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L300" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M300" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>313</v>
       </c>
@@ -13279,8 +14970,14 @@
       <c r="K301" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L301" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M301" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>314</v>
       </c>
@@ -13314,8 +15011,14 @@
       <c r="K302" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L302" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M302" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>315</v>
       </c>
@@ -13349,8 +15052,14 @@
       <c r="K303" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L303" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M303" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>316</v>
       </c>
@@ -13384,8 +15093,14 @@
       <c r="K304" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L304" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M304" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>317</v>
       </c>
@@ -13419,8 +15134,14 @@
       <c r="K305" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L305" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M305" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>318</v>
       </c>
@@ -13454,8 +15175,14 @@
       <c r="K306" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L306" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M306" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>319</v>
       </c>
@@ -13489,8 +15216,14 @@
       <c r="K307" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L307" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M307" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>320</v>
       </c>
@@ -13524,8 +15257,14 @@
       <c r="K308" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L308" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M308" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>321</v>
       </c>
@@ -13559,8 +15298,14 @@
       <c r="K309" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L309" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M309" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>322</v>
       </c>
@@ -13593,6 +15338,12 @@
       </c>
       <c r="K310" s="1">
         <v>3</v>
+      </c>
+      <c r="L310" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M310" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13636,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>323</v>
       </c>
@@ -13670,8 +15421,14 @@
       <c r="K312" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L312" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M312" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>324</v>
       </c>
@@ -13705,8 +15462,14 @@
       <c r="K313" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L313" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M313" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>325</v>
       </c>
@@ -13740,8 +15503,14 @@
       <c r="K314" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L314" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M314" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>326</v>
       </c>
@@ -13774,6 +15543,12 @@
       </c>
       <c r="K315" s="1">
         <v>1</v>
+      </c>
+      <c r="L315" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M315" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13817,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>328</v>
       </c>
@@ -13851,8 +15626,14 @@
       <c r="K317" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L317" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M317" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>329</v>
       </c>
@@ -13886,8 +15667,14 @@
       <c r="K318" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L318" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M318" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>330</v>
       </c>
@@ -13921,8 +15708,14 @@
       <c r="K319" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L319" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M319" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>331</v>
       </c>
@@ -13956,8 +15749,14 @@
       <c r="K320" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L320" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M320" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>332</v>
       </c>
@@ -13991,8 +15790,14 @@
       <c r="K321" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L321" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M321" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>333</v>
       </c>
@@ -14026,8 +15831,14 @@
       <c r="K322" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L322" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M322" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>334</v>
       </c>
@@ -14060,6 +15871,12 @@
       </c>
       <c r="K323" s="1">
         <v>1</v>
+      </c>
+      <c r="L323" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M323" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -14103,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>336</v>
       </c>
@@ -14137,8 +15954,14 @@
       <c r="K325" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L325" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M325" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>337</v>
       </c>
@@ -14172,8 +15995,14 @@
       <c r="K326" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L326" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M326" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>338</v>
       </c>
@@ -14207,8 +16036,14 @@
       <c r="K327" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L327" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M327" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>339</v>
       </c>
@@ -14242,8 +16077,14 @@
       <c r="K328" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L328" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M328" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>340</v>
       </c>
@@ -14277,8 +16118,14 @@
       <c r="K329" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L329" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M329" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>341</v>
       </c>
@@ -14312,8 +16159,14 @@
       <c r="K330" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L330" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M330" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>342</v>
       </c>
@@ -14347,8 +16200,14 @@
       <c r="K331" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L331" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M331" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>343</v>
       </c>
@@ -14382,8 +16241,14 @@
       <c r="K332" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L332" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M332" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>344</v>
       </c>
@@ -14417,8 +16282,14 @@
       <c r="K333" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L333" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M333" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>345</v>
       </c>
@@ -14452,8 +16323,14 @@
       <c r="K334" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L334" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M334" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>346</v>
       </c>
@@ -14487,8 +16364,14 @@
       <c r="K335" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L335" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M335" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>347</v>
       </c>
@@ -14522,8 +16405,14 @@
       <c r="K336" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L336" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M336" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>348</v>
       </c>
@@ -14557,8 +16446,14 @@
       <c r="K337" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L337" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M337" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>349</v>
       </c>
@@ -14592,8 +16487,14 @@
       <c r="K338" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L338" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M338" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>350</v>
       </c>
@@ -14627,8 +16528,14 @@
       <c r="K339" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L339" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M339" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>351</v>
       </c>
@@ -14662,8 +16569,14 @@
       <c r="K340" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L340" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M340" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>352</v>
       </c>
@@ -14697,8 +16610,14 @@
       <c r="K341" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L341" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M341" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>353</v>
       </c>
@@ -14732,8 +16651,14 @@
       <c r="K342" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L342" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M342" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>354</v>
       </c>
@@ -14767,8 +16692,14 @@
       <c r="K343" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L343" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M343" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>355</v>
       </c>
@@ -14802,8 +16733,14 @@
       <c r="K344" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L344" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M344" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>356</v>
       </c>
@@ -14837,8 +16774,14 @@
       <c r="K345" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L345" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M345" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>357</v>
       </c>
@@ -14872,8 +16815,14 @@
       <c r="K346" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L346" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M346" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>358</v>
       </c>
@@ -14907,8 +16856,14 @@
       <c r="K347" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L347" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M347" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>359</v>
       </c>
@@ -14942,8 +16897,14 @@
       <c r="K348" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L348" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M348" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>360</v>
       </c>
@@ -14977,8 +16938,14 @@
       <c r="K349" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L349" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M349" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>361</v>
       </c>
@@ -15012,8 +16979,14 @@
       <c r="K350" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L350" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M350" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>362</v>
       </c>
@@ -15046,6 +17019,12 @@
       </c>
       <c r="K351" s="1">
         <v>1</v>
+      </c>
+      <c r="L351" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M351" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -15130,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>365</v>
       </c>
@@ -15164,8 +17143,14 @@
       <c r="K354" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L354" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M354" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>366</v>
       </c>
@@ -15199,8 +17184,14 @@
       <c r="K355" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M355" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>367</v>
       </c>
@@ -15234,8 +17225,14 @@
       <c r="K356" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M356" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>368</v>
       </c>
@@ -15269,8 +17266,14 @@
       <c r="K357" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M357" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>369</v>
       </c>
@@ -15304,8 +17307,14 @@
       <c r="K358" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M358" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>370</v>
       </c>
@@ -15339,8 +17348,14 @@
       <c r="K359" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M359" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>371</v>
       </c>
@@ -15374,8 +17389,14 @@
       <c r="K360" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M360" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>372</v>
       </c>
@@ -15408,6 +17429,12 @@
       </c>
       <c r="K361" s="1">
         <v>2</v>
+      </c>
+      <c r="L361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M361" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15574,7 +17601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>377</v>
       </c>
@@ -15608,8 +17635,14 @@
       <c r="K366" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M366" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>378</v>
       </c>
@@ -15643,8 +17676,14 @@
       <c r="K367" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M367" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>379</v>
       </c>
@@ -15677,6 +17716,12 @@
       </c>
       <c r="K368" s="1">
         <v>1</v>
+      </c>
+      <c r="L368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M368" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
@@ -15720,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>381</v>
       </c>
@@ -15754,8 +17799,14 @@
       <c r="K370" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M370" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>382</v>
       </c>
@@ -15789,8 +17840,14 @@
       <c r="K371" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M371" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>383</v>
       </c>
@@ -15824,8 +17881,14 @@
       <c r="K372" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M372" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>384</v>
       </c>
@@ -15858,6 +17921,12 @@
       </c>
       <c r="K373" s="1">
         <v>1</v>
+      </c>
+      <c r="L373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M373" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15901,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>47</v>
       </c>
@@ -15934,6 +18003,12 @@
       </c>
       <c r="K375" s="1">
         <v>1</v>
+      </c>
+      <c r="L375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M375" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15977,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>386</v>
       </c>
@@ -16011,8 +18086,14 @@
       <c r="K377" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M377" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>387</v>
       </c>
@@ -16046,8 +18127,14 @@
       <c r="K378" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M378" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>388</v>
       </c>
@@ -16081,8 +18168,14 @@
       <c r="K379" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M379" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>389</v>
       </c>
@@ -16115,6 +18208,12 @@
       </c>
       <c r="K380" s="1">
         <v>3</v>
+      </c>
+      <c r="L380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M380" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16158,7 +18257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>391</v>
       </c>
@@ -16192,8 +18291,14 @@
       <c r="K382" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M382" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>392</v>
       </c>
@@ -16227,8 +18332,14 @@
       <c r="K383" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M383" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>393</v>
       </c>
@@ -16262,8 +18373,14 @@
       <c r="K384" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M384" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
@@ -16297,8 +18414,14 @@
       <c r="K385" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M385" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
@@ -16332,8 +18455,14 @@
       <c r="K386" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M386" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
@@ -16367,8 +18496,14 @@
       <c r="K387" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L387" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M387" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>
@@ -16402,8 +18537,14 @@
       <c r="K388" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L388" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M388" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>398</v>
       </c>
@@ -16437,8 +18578,14 @@
       <c r="K389" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L389" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M389" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>399</v>
       </c>
@@ -16472,8 +18619,14 @@
       <c r="K390" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L390" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M390" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>400</v>
       </c>
@@ -16507,8 +18660,14 @@
       <c r="K391" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L391" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M391" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>296</v>
       </c>
@@ -16542,8 +18701,14 @@
       <c r="K392" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L392" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M392" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>401</v>
       </c>
@@ -16577,8 +18742,14 @@
       <c r="K393" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L393" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M393" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>402</v>
       </c>
@@ -16612,8 +18783,14 @@
       <c r="K394" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L394" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M394" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>403</v>
       </c>
@@ -16647,8 +18824,14 @@
       <c r="K395" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L395" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M395" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>404</v>
       </c>
@@ -16682,8 +18865,14 @@
       <c r="K396" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L396" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M396" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>405</v>
       </c>
@@ -16717,8 +18906,14 @@
       <c r="K397" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L397" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M397" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>406</v>
       </c>
@@ -16752,8 +18947,14 @@
       <c r="K398" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L398" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M398" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>407</v>
       </c>
@@ -16787,8 +18988,14 @@
       <c r="K399" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L399" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M399" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>408</v>
       </c>
@@ -16822,8 +19029,14 @@
       <c r="K400" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L400" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M400" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>20</v>
       </c>
@@ -16857,8 +19070,14 @@
       <c r="K401" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L401" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M401" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>409</v>
       </c>
@@ -16892,8 +19111,14 @@
       <c r="K402" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L402" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M402" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>410</v>
       </c>
@@ -16927,8 +19152,14 @@
       <c r="K403" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L403" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M403" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>411</v>
       </c>
@@ -16962,8 +19193,14 @@
       <c r="K404" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L404" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M404" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>412</v>
       </c>
@@ -16997,8 +19234,14 @@
       <c r="K405" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L405" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M405" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>413</v>
       </c>
@@ -17032,8 +19275,14 @@
       <c r="K406" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L406" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M406" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>414</v>
       </c>
@@ -17067,8 +19316,14 @@
       <c r="K407" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L407" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M407" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>415</v>
       </c>
@@ -17102,8 +19357,14 @@
       <c r="K408" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L408" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M408" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>416</v>
       </c>
@@ -17137,8 +19398,14 @@
       <c r="K409" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L409" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M409" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>417</v>
       </c>
@@ -17172,8 +19439,14 @@
       <c r="K410" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L410" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M410" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>418</v>
       </c>
@@ -17207,8 +19480,14 @@
       <c r="K411" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L411" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M411" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>419</v>
       </c>
@@ -17241,6 +19520,12 @@
       </c>
       <c r="K412" s="1">
         <v>5</v>
+      </c>
+      <c r="L412" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M412" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17284,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>421</v>
       </c>
@@ -17318,8 +19603,14 @@
       <c r="K414" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L414" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M414" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>422</v>
       </c>
@@ -17353,8 +19644,14 @@
       <c r="K415" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L415" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M415" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>423</v>
       </c>
@@ -17388,8 +19685,14 @@
       <c r="K416" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L416" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M416" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>424</v>
       </c>
@@ -17423,8 +19726,14 @@
       <c r="K417" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L417" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M417" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>425</v>
       </c>
@@ -17458,8 +19767,14 @@
       <c r="K418" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L418" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M418" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>426</v>
       </c>
@@ -17493,8 +19808,14 @@
       <c r="K419" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L419" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M419" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>427</v>
       </c>
@@ -17528,8 +19849,14 @@
       <c r="K420" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L420" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M420" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>428</v>
       </c>
@@ -17563,8 +19890,14 @@
       <c r="K421" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L421" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M421" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>429</v>
       </c>
@@ -17598,8 +19931,14 @@
       <c r="K422" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L422" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M422" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>430</v>
       </c>
@@ -17633,8 +19972,14 @@
       <c r="K423" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L423" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M423" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>431</v>
       </c>
@@ -17668,8 +20013,14 @@
       <c r="K424" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L424" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M424" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>432</v>
       </c>
@@ -17703,8 +20054,14 @@
       <c r="K425" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L425" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M425" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>433</v>
       </c>
@@ -17738,8 +20095,14 @@
       <c r="K426" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L426" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M426" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>434</v>
       </c>
@@ -17772,6 +20135,12 @@
       </c>
       <c r="K427" s="1">
         <v>5</v>
+      </c>
+      <c r="L427" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M427" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
@@ -17815,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>436</v>
       </c>
@@ -17849,8 +20218,14 @@
       <c r="K429" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L429" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M429" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>437</v>
       </c>
@@ -17884,8 +20259,14 @@
       <c r="K430" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L430" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M430" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>438</v>
       </c>
@@ -17919,8 +20300,14 @@
       <c r="K431" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L431" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M431" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>439</v>
       </c>
@@ -17954,8 +20341,14 @@
       <c r="K432" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L432" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M432" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>440</v>
       </c>
@@ -17989,8 +20382,14 @@
       <c r="K433" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L433" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M433" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>441</v>
       </c>
@@ -18024,8 +20423,14 @@
       <c r="K434" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L434" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M434" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>442</v>
       </c>
@@ -18059,8 +20464,14 @@
       <c r="K435" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L435" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M435" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>443</v>
       </c>
@@ -18094,8 +20505,14 @@
       <c r="K436" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L436" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M436" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>444</v>
       </c>
@@ -18129,8 +20546,14 @@
       <c r="K437" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L437" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M437" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>445</v>
       </c>
@@ -18164,8 +20587,14 @@
       <c r="K438" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L438" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M438" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>446</v>
       </c>
@@ -18199,8 +20628,14 @@
       <c r="K439" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L439" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M439" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>447</v>
       </c>
@@ -18234,8 +20669,14 @@
       <c r="K440" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L440" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M440" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>448</v>
       </c>
@@ -18269,8 +20710,14 @@
       <c r="K441" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L441" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M441" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>449</v>
       </c>
@@ -18304,8 +20751,14 @@
       <c r="K442" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L442" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M442" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>450</v>
       </c>
@@ -18339,8 +20792,14 @@
       <c r="K443" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L443" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M443" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>451</v>
       </c>
@@ -18374,8 +20833,14 @@
       <c r="K444" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L444" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M444" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>452</v>
       </c>
@@ -18409,8 +20874,14 @@
       <c r="K445" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L445" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M445" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>453</v>
       </c>
@@ -18444,8 +20915,14 @@
       <c r="K446" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L446" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M446" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>454</v>
       </c>
@@ -18479,8 +20956,14 @@
       <c r="K447" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L447" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M447" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>455</v>
       </c>
@@ -18514,8 +20997,14 @@
       <c r="K448" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L448" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M448" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>456</v>
       </c>
@@ -18549,8 +21038,14 @@
       <c r="K449" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L449" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M449" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>457</v>
       </c>
@@ -18584,8 +21079,14 @@
       <c r="K450" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L450" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M450" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>458</v>
       </c>
@@ -18619,8 +21120,14 @@
       <c r="K451" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L451" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M451" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>459</v>
       </c>
@@ -18654,8 +21161,14 @@
       <c r="K452" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L452" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M452" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>460</v>
       </c>
@@ -18688,6 +21201,12 @@
       </c>
       <c r="K453" s="1">
         <v>3</v>
+      </c>
+      <c r="L453" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M453" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
@@ -18731,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>462</v>
       </c>
@@ -18765,8 +21284,14 @@
       <c r="K455" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L455" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M455" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>463</v>
       </c>
@@ -18799,6 +21324,12 @@
       </c>
       <c r="K456" s="1">
         <v>3</v>
+      </c>
+      <c r="L456" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M456" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
@@ -18883,7 +21414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>466</v>
       </c>
@@ -18917,8 +21448,14 @@
       <c r="K459" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L459" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M459" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>467</v>
       </c>
@@ -18952,8 +21489,14 @@
       <c r="K460" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L460" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M460" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>468</v>
       </c>
@@ -18987,8 +21530,14 @@
       <c r="K461" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L461" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M461" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>469</v>
       </c>
@@ -19022,8 +21571,14 @@
       <c r="K462" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L462" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M462" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>470</v>
       </c>
@@ -19057,8 +21612,14 @@
       <c r="K463" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L463" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M463" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>471</v>
       </c>
@@ -19091,6 +21652,12 @@
       </c>
       <c r="K464" s="1">
         <v>3</v>
+      </c>
+      <c r="L464" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M464" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
@@ -19134,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>473</v>
       </c>
@@ -19168,8 +21735,14 @@
       <c r="K466" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L466" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M466" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>474</v>
       </c>
@@ -19203,8 +21776,14 @@
       <c r="K467" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L467" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M467" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>475</v>
       </c>
@@ -19238,8 +21817,14 @@
       <c r="K468" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L468" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M468" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>476</v>
       </c>
@@ -19273,8 +21858,14 @@
       <c r="K469" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L469" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M469" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>477</v>
       </c>
@@ -19308,8 +21899,14 @@
       <c r="K470" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L470" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M470" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>478</v>
       </c>
@@ -19343,8 +21940,14 @@
       <c r="K471" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L471" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M471" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>479</v>
       </c>
@@ -19378,8 +21981,14 @@
       <c r="K472" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L472" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M472" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>480</v>
       </c>
@@ -19413,8 +22022,14 @@
       <c r="K473" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L473" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M473" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>481</v>
       </c>
@@ -19448,8 +22063,14 @@
       <c r="K474" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L474" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M474" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>482</v>
       </c>
@@ -19483,8 +22104,14 @@
       <c r="K475" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L475" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M475" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>483</v>
       </c>
@@ -19518,8 +22145,14 @@
       <c r="K476" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L476" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M476" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>484</v>
       </c>
@@ -19553,8 +22186,14 @@
       <c r="K477" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L477" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M477" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>485</v>
       </c>
@@ -19588,8 +22227,14 @@
       <c r="K478" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L478" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M478" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>486</v>
       </c>
@@ -19623,8 +22268,14 @@
       <c r="K479" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L479" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M479" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>487</v>
       </c>
@@ -19658,8 +22309,14 @@
       <c r="K480" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L480" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M480" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>488</v>
       </c>
@@ -19693,8 +22350,14 @@
       <c r="K481" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L481" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M481" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>489</v>
       </c>
@@ -19728,8 +22391,14 @@
       <c r="K482" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L482" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M482" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>490</v>
       </c>
@@ -19763,8 +22432,14 @@
       <c r="K483" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L483" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M483" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>491</v>
       </c>
@@ -19798,8 +22473,14 @@
       <c r="K484" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L484" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M484" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>492</v>
       </c>
@@ -19833,8 +22514,14 @@
       <c r="K485" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L485" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M485" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>493</v>
       </c>
@@ -19868,8 +22555,14 @@
       <c r="K486" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L486" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M486" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>494</v>
       </c>
@@ -19903,8 +22596,14 @@
       <c r="K487" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L487" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M487" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>495</v>
       </c>
@@ -19938,8 +22637,14 @@
       <c r="K488" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L488" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M488" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>496</v>
       </c>
@@ -19973,8 +22678,14 @@
       <c r="K489" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L489" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M489" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>497</v>
       </c>
@@ -20008,8 +22719,14 @@
       <c r="K490" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L490" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M490" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>498</v>
       </c>
@@ -20043,8 +22760,14 @@
       <c r="K491" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L491" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M491" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>499</v>
       </c>
@@ -20078,8 +22801,14 @@
       <c r="K492" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L492" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M492" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>500</v>
       </c>
@@ -20113,8 +22842,14 @@
       <c r="K493" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L493" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M493" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>501</v>
       </c>
@@ -20148,8 +22883,14 @@
       <c r="K494" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L494" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M494" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>502</v>
       </c>
@@ -20183,8 +22924,14 @@
       <c r="K495" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L495" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M495" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>503</v>
       </c>
@@ -20217,6 +22964,12 @@
       </c>
       <c r="K496" s="1">
         <v>2</v>
+      </c>
+      <c r="L496" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M496" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -20260,7 +23013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>505</v>
       </c>
@@ -20294,8 +23047,14 @@
       <c r="K498" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L498" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M498" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>506</v>
       </c>
@@ -20328,6 +23087,12 @@
       </c>
       <c r="K499" s="1">
         <v>4</v>
+      </c>
+      <c r="L499" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M499" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
@@ -20371,7 +23136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>508</v>
       </c>
@@ -20405,8 +23170,14 @@
       <c r="K501" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L501" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M501" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>509</v>
       </c>
@@ -20440,8 +23211,14 @@
       <c r="K502" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L502" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M502" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>510</v>
       </c>
@@ -20475,8 +23252,14 @@
       <c r="K503" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L503" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M503" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>511</v>
       </c>
@@ -20510,8 +23293,14 @@
       <c r="K504" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L504" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M504" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>512</v>
       </c>
@@ -20545,8 +23334,14 @@
       <c r="K505" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L505" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M505" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>513</v>
       </c>
@@ -20580,8 +23375,14 @@
       <c r="K506" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L506" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M506" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>514</v>
       </c>
@@ -20615,8 +23416,14 @@
       <c r="K507" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L507" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M507" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>515</v>
       </c>
@@ -20650,8 +23457,14 @@
       <c r="K508" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L508" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M508" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>516</v>
       </c>
@@ -20685,8 +23498,14 @@
       <c r="K509" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L509" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M509" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>517</v>
       </c>
@@ -20720,8 +23539,14 @@
       <c r="K510" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L510" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M510" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>518</v>
       </c>
@@ -20755,8 +23580,14 @@
       <c r="K511" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L511" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M511" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>519</v>
       </c>
@@ -20789,6 +23620,12 @@
       </c>
       <c r="K512" s="1">
         <v>1</v>
+      </c>
+      <c r="L512" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M512" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
@@ -20832,7 +23669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>521</v>
       </c>
@@ -20866,8 +23703,14 @@
       <c r="K514" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L514" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M514" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>522</v>
       </c>
@@ -20901,8 +23744,14 @@
       <c r="K515" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L515" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M515" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>523</v>
       </c>
@@ -20936,8 +23785,14 @@
       <c r="K516" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L516" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M516" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>524</v>
       </c>
@@ -20971,8 +23826,14 @@
       <c r="K517" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L517" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M517" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>525</v>
       </c>
@@ -21006,8 +23867,14 @@
       <c r="K518" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L518" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M518" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>526</v>
       </c>
@@ -21041,8 +23908,14 @@
       <c r="K519" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L519" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M519" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>527</v>
       </c>
@@ -21076,8 +23949,14 @@
       <c r="K520" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L520" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M520" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>528</v>
       </c>
@@ -21111,8 +23990,14 @@
       <c r="K521" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L521" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M521" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>529</v>
       </c>
@@ -21146,8 +24031,14 @@
       <c r="K522" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L522" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M522" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>530</v>
       </c>
@@ -21181,8 +24072,14 @@
       <c r="K523" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L523" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M523" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>531</v>
       </c>
@@ -21216,8 +24113,14 @@
       <c r="K524" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L524" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M524" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>532</v>
       </c>
@@ -21250,6 +24153,12 @@
       </c>
       <c r="K525" s="1">
         <v>3</v>
+      </c>
+      <c r="L525" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M525" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
@@ -21293,7 +24202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>534</v>
       </c>
@@ -21327,8 +24236,14 @@
       <c r="K527" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L527" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M527" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>535</v>
       </c>
@@ -21362,8 +24277,14 @@
       <c r="K528" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L528" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M528" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>536</v>
       </c>
@@ -21397,8 +24318,14 @@
       <c r="K529" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L529" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M529" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>537</v>
       </c>
@@ -21432,8 +24359,14 @@
       <c r="K530" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L530" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M530" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>538</v>
       </c>
@@ -21467,8 +24400,14 @@
       <c r="K531" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L531" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M531" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>539</v>
       </c>
@@ -21502,8 +24441,14 @@
       <c r="K532" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L532" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M532" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>540</v>
       </c>
@@ -21537,8 +24482,14 @@
       <c r="K533" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L533" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M533" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>541</v>
       </c>
@@ -21572,8 +24523,14 @@
       <c r="K534" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L534" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M534" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>542</v>
       </c>
@@ -21607,8 +24564,14 @@
       <c r="K535" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L535" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M535" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>543</v>
       </c>
@@ -21642,8 +24605,14 @@
       <c r="K536" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L536" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M536" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>544</v>
       </c>
@@ -21677,8 +24646,14 @@
       <c r="K537" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L537" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M537" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>545</v>
       </c>
@@ -21712,8 +24687,14 @@
       <c r="K538" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L538" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M538" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>546</v>
       </c>
@@ -21747,8 +24728,14 @@
       <c r="K539" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L539" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M539" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>547</v>
       </c>
@@ -21782,8 +24769,14 @@
       <c r="K540" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L540" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M540" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>548</v>
       </c>
@@ -21817,8 +24810,14 @@
       <c r="K541" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L541" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M541" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>549</v>
       </c>
@@ -21852,8 +24851,14 @@
       <c r="K542" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L542" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M542" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>279</v>
       </c>
@@ -21887,8 +24892,14 @@
       <c r="K543" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L543" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M543" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>550</v>
       </c>
@@ -21922,8 +24933,14 @@
       <c r="K544" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L544" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M544" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>551</v>
       </c>
@@ -21957,8 +24974,14 @@
       <c r="K545" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L545" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M545" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>552</v>
       </c>
@@ -21992,8 +25015,14 @@
       <c r="K546" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L546" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M546" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>553</v>
       </c>
@@ -22027,8 +25056,14 @@
       <c r="K547" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L547" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M547" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>554</v>
       </c>
@@ -22062,18 +25097,18 @@
       <c r="K548" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L548" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M548" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J554" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K548" xr:uid="{302E5662-4BAB-4646-A72D-53908ECEAB69}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Sporting"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K548" xr:uid="{302E5662-4BAB-4646-A72D-53908ECEAB69}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
